--- a/21_yearly_sales_trends.xlsx
+++ b/21_yearly_sales_trends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil\OneDrive\Dokumenty\electrical_wholesale_database\query_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22647006-C182-45D8-AB3E-E47D00FA2FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0464BE-445A-4975-BD22-6ED9BDCFAAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,6 +267,21 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dashDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>yearly_sales_trends!$A$2:$A$5</c:f>
